--- a/02_paper/02_study/02_fitbit paper/data/data_empschul_labor_lehrperson.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/data_empschul_labor_lehrperson.xlsx
@@ -131,7 +131,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN57"/>
+  <dimension ref="A1:BN64"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="BM2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="BN2" s="1" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="BM3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="BN3" s="1" t="n">
         <v>3</v>
@@ -1111,7 +1111,7 @@
         <v>227</v>
       </c>
       <c r="BD4" s="1" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3" t="n">
@@ -1311,7 +1311,7 @@
         <v>439</v>
       </c>
       <c r="BD5" s="1" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3" t="n">
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="BM5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="BN5" s="1" t="n">
         <v>8</v>
@@ -1526,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="BM6" s="4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="BN6" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1726,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="BM7" s="4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="BN7" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="BM8" s="4" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="BN8" s="1" t="n">
         <v>27</v>
@@ -2124,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="BM9" s="4" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="BN9" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -2318,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="BM10" s="4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BN10" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="BM11" s="4" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="BN11" s="1" t="n">
         <v>3</v>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="BM12" s="4" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="BN12" s="1" t="n">
         <v>16</v>
@@ -2897,7 +2897,7 @@
         <v>252</v>
       </c>
       <c r="BD13" s="1" t="n">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="BE13" s="3"/>
       <c r="BF13" s="3" t="n">
@@ -3122,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="BM14" s="4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BN14" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="BM15" s="4" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="BN15" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="BM16" s="4" t="n">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
       <c r="BN16" s="1" t="n">
         <v>1</v>
@@ -3693,7 +3693,7 @@
         <v>273</v>
       </c>
       <c r="BD17" s="1" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BE17" s="3"/>
       <c r="BF17" s="3" t="n">
@@ -3718,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="BM17" s="4" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="BN17" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -3897,7 +3897,7 @@
         <v>153</v>
       </c>
       <c r="BD18" s="1" t="n">
-        <v>315</v>
+        <v>1838</v>
       </c>
       <c r="BE18" s="3"/>
       <c r="BF18" s="3" t="n">
@@ -3922,10 +3922,10 @@
         <v>0</v>
       </c>
       <c r="BM18" s="4" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="BN18" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -4120,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="BM19" s="4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BN19" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -4295,7 +4295,7 @@
         <v>99</v>
       </c>
       <c r="BD20" s="1" t="n">
-        <v>282</v>
+        <v>2690</v>
       </c>
       <c r="BE20" s="3"/>
       <c r="BF20" s="3" t="n">
@@ -4320,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="BM20" s="4" t="n">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="BN20" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -4523,7 +4523,7 @@
         <v>0.83</v>
       </c>
       <c r="BN21" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -4689,7 +4689,7 @@
         <v>187</v>
       </c>
       <c r="BD22" s="1" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE22" s="3"/>
       <c r="BF22" s="3" t="n">
@@ -4714,10 +4714,10 @@
         <v>1</v>
       </c>
       <c r="BM22" s="4" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="BN22" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -4889,7 +4889,7 @@
         <v>120</v>
       </c>
       <c r="BD23" s="1" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BE23" s="3"/>
       <c r="BF23" s="3" t="n">
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="BM23" s="4" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="BN23" s="1" t="n">
         <v>8</v>
@@ -5089,7 +5089,7 @@
         <v>170</v>
       </c>
       <c r="BD24" s="1" t="n">
-        <v>370</v>
+        <v>2890</v>
       </c>
       <c r="BE24" s="3"/>
       <c r="BF24" s="3" t="n">
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="BM24" s="4" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="BN24" s="1" t="n">
         <v>1</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="4" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="BN25" s="1" t="n">
         <v>0</v>
@@ -5518,10 +5518,10 @@
         <v>1</v>
       </c>
       <c r="BM26" s="4" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BN26" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="BM27" s="4" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="BN27" s="1" t="n">
         <v>3</v>
@@ -5889,7 +5889,7 @@
         <v>162</v>
       </c>
       <c r="BD28" s="1" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BE28" s="3"/>
       <c r="BF28" s="3" t="n">
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="BM28" s="4" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="BN28" s="1" t="n">
         <v>2</v>
@@ -6114,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="BM29" s="4" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="BN29" s="1" t="n">
         <v>6</v>
@@ -6308,10 +6308,10 @@
         <v>1</v>
       </c>
       <c r="BM30" s="4" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="BN30" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -6481,7 +6481,7 @@
         <v>138</v>
       </c>
       <c r="BD31" s="1" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BE31" s="3"/>
       <c r="BF31" s="3" t="n">
@@ -6506,10 +6506,10 @@
         <v>0</v>
       </c>
       <c r="BM31" s="4" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="BN31" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -6710,10 +6710,10 @@
         <v>0</v>
       </c>
       <c r="BM32" s="4" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="BN32" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -6875,7 +6875,7 @@
         <v>292</v>
       </c>
       <c r="BD33" s="1" t="n">
-        <v>434</v>
+        <v>2533</v>
       </c>
       <c r="BE33" s="3"/>
       <c r="BF33" s="3" t="n">
@@ -6900,10 +6900,10 @@
         <v>1</v>
       </c>
       <c r="BM33" s="4" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="BN33" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -7073,7 +7073,7 @@
         <v>574</v>
       </c>
       <c r="BD34" s="1" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BE34" s="3"/>
       <c r="BF34" s="3" t="n">
@@ -7098,10 +7098,10 @@
         <v>0</v>
       </c>
       <c r="BM34" s="4" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="BN34" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -7288,10 +7288,10 @@
         <v>1</v>
       </c>
       <c r="BM35" s="4" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="BN35" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -7484,10 +7484,10 @@
         <v>9</v>
       </c>
       <c r="BM36" s="4" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="BN36" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -7655,7 +7655,7 @@
         <v>177</v>
       </c>
       <c r="BD37" s="1" t="n">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="BE37" s="3"/>
       <c r="BF37" s="3" t="n">
@@ -7847,7 +7847,7 @@
         <v>278</v>
       </c>
       <c r="BD38" s="1" t="n">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="BE38" s="3"/>
       <c r="BF38" s="3" t="n">
@@ -8043,7 +8043,7 @@
         <v>209</v>
       </c>
       <c r="BD39" s="1" t="n">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="BE39" s="3"/>
       <c r="BF39" s="3" t="n">
@@ -8264,10 +8264,10 @@
         <v>3</v>
       </c>
       <c r="BM40" s="4" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="BN40" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -8456,10 +8456,10 @@
         <v>10</v>
       </c>
       <c r="BM41" s="4" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="BN41" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -8656,10 +8656,10 @@
         <v>1</v>
       </c>
       <c r="BM42" s="4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BN42" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -8845,7 +8845,7 @@
         <v>1.92</v>
       </c>
       <c r="BN43" s="1" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -9034,10 +9034,10 @@
         <v>10</v>
       </c>
       <c r="BM44" s="4" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="BN44" s="1" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -9226,10 +9226,10 @@
         <v>10</v>
       </c>
       <c r="BM45" s="4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="BN45" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -9424,7 +9424,7 @@
         <v>3</v>
       </c>
       <c r="BM46" s="4" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="BN46" s="1" t="n">
         <v>1</v>
@@ -9820,7 +9820,7 @@
         <v>1</v>
       </c>
       <c r="BM48" s="4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="BN48" s="1" t="n">
         <v>11</v>
@@ -10024,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="4" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="BN49" s="1" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>146</v>
       </c>
       <c r="BD50" s="1" t="n">
-        <v>513</v>
+        <v>1951</v>
       </c>
       <c r="BE50" s="3"/>
       <c r="BF50" s="3" t="n">
@@ -10224,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="BM50" s="4" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="BN50" s="1" t="n">
         <v>4</v>
@@ -10620,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="BM52" s="4" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="BN52" s="1" t="n">
         <v>8</v>
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="BM53" s="4" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="BN53" s="1" t="n">
         <v>4</v>
@@ -10999,7 +10999,7 @@
         <v>174</v>
       </c>
       <c r="BD54" s="1" t="n">
-        <v>425</v>
+        <v>1812</v>
       </c>
       <c r="BE54" s="3"/>
       <c r="BF54" s="3" t="n">
@@ -11024,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="BM54" s="4" t="n">
-        <v>0.56</v>
+        <v>0.55</v>
       </c>
       <c r="BN54" s="1" t="n">
         <v>0</v>
@@ -11193,7 +11193,7 @@
         <v>147</v>
       </c>
       <c r="BD55" s="1" t="n">
-        <v>294</v>
+        <v>2130</v>
       </c>
       <c r="BE55" s="3"/>
       <c r="BF55" s="3" t="n">
@@ -11218,10 +11218,10 @@
         <v>1</v>
       </c>
       <c r="BM55" s="4" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="BN55" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1" t="n">
-        <v> -9</v>
+        <v>3</v>
       </c>
       <c r="AF56" s="1" t="n">
         <v>3</v>
@@ -11374,44 +11374,44 @@
         <v>3</v>
       </c>
       <c r="BA56" s="1" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="BB56" s="1" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="BC56" s="1" t="n">
         <v>112</v>
       </c>
       <c r="BD56" s="1" t="n">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="BE56" s="3"/>
       <c r="BF56" s="3" t="n">
-        <v>44833.507268519</v>
+        <v>44855.749791667</v>
       </c>
       <c r="BG56" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH56" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BI56" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ56" s="1" t="n">
         <v>3</v>
       </c>
       <c r="BK56" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BL56" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BM56" s="4" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="BN56" s="1" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -11583,7 +11583,7 @@
         <v>137</v>
       </c>
       <c r="BD57" s="1" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BE57" s="3"/>
       <c r="BF57" s="3" t="n">
@@ -11608,10 +11608,1372 @@
         <v>1</v>
       </c>
       <c r="BM57" s="4" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="BN57" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+      <c r="A58" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>44854.655613426</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="P58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>Englisch</t>
+        </is>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="U58" s="2" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="V58" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="W58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y58" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z58" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="2" t="inlineStr">
+        <is>
+          <t>FSJ Ausbildung Erste Hilfe; Nachhilfe Mathematik</t>
+        </is>
+      </c>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN58" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA58" s="1" t="n">
+        <v>4012</v>
+      </c>
+      <c r="BB58" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="BC58" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="BD58" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="BE58" s="3"/>
+      <c r="BF58" s="3" t="n">
+        <v>44854.705972222</v>
+      </c>
+      <c r="BG58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM58" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BN58" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+      <c r="A59" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>44855.33162037</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="P59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="R59" s="2" t="inlineStr">
+        <is>
+          <t>Spanisch</t>
+        </is>
+      </c>
+      <c r="S59" s="2" t="inlineStr">
+        <is>
+          <t>GRW</t>
+        </is>
+      </c>
+      <c r="T59" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="U59" s="2" t="inlineStr">
+        <is>
+          <t>Spanisch</t>
+        </is>
+      </c>
+      <c r="V59" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="2" t="inlineStr">
+        <is>
+          <t>Kursleiterin Hochschulsport, Dozintin an der Uni Leipzig</t>
+        </is>
+      </c>
+      <c r="AE59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN59" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA59" s="1" t="n">
+        <v>2935</v>
+      </c>
+      <c r="BB59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BC59" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="BD59" s="1" t="n">
+        <v>3171</v>
+      </c>
+      <c r="BE59" s="3"/>
+      <c r="BF59" s="3" t="n">
+        <v>44855.368321759</v>
+      </c>
+      <c r="BG59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM59" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="BN59" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+      <c r="A60" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>44858.575115741</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="P60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>Geschichte</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="inlineStr">
+        <is>
+          <t>GRW</t>
+        </is>
+      </c>
+      <c r="S60" s="2"/>
+      <c r="T60" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="U60" s="2" t="inlineStr">
+        <is>
+          <t>Geschichte</t>
+        </is>
+      </c>
+      <c r="V60" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="W60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN60" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO60" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BB60" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="BC60" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="BD60" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="BE60" s="3"/>
+      <c r="BF60" s="3" t="n">
+        <v>44858.578298611</v>
+      </c>
+      <c r="BG60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM60" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN60" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+      <c r="A61" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>44860.652731481</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="inlineStr">
+        <is>
+          <t>Geschichte</t>
+        </is>
+      </c>
+      <c r="S61" s="2"/>
+      <c r="T61" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="U61" s="2" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+      <c r="V61" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="W61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN61" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO61" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA61" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BB61" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC61" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="BD61" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="BE61" s="3"/>
+      <c r="BF61" s="3" t="n">
+        <v>44860.65619213</v>
+      </c>
+      <c r="BG61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM61" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BN61" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+      <c r="A62" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>44861.663530093</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="R62" s="2" t="inlineStr">
+        <is>
+          <t>Kunst</t>
+        </is>
+      </c>
+      <c r="S62" s="2"/>
+      <c r="T62" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="U62" s="2" t="inlineStr">
+        <is>
+          <t>Kunst</t>
+        </is>
+      </c>
+      <c r="V62" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN62" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA62" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC62" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="BD62" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="BE62" s="3"/>
+      <c r="BF62" s="3" t="n">
+        <v>44881.475127315</v>
+      </c>
+      <c r="BG62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM62" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BN62" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+      <c r="A63" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>44875.649513889</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>Geschichte</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>Geographie</t>
+        </is>
+      </c>
+      <c r="T63" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="U63" s="2" t="inlineStr">
+        <is>
+          <t>Rockmusik und Gesellschaft</t>
+        </is>
+      </c>
+      <c r="V63" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="W63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN63" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO63" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA63" s="1" t="n">
+        <v>2066</v>
+      </c>
+      <c r="BB63" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC63" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="BD63" s="1" t="n">
+        <v>2323</v>
+      </c>
+      <c r="BE63" s="3"/>
+      <c r="BF63" s="3" t="n">
+        <v>44875.679166667</v>
+      </c>
+      <c r="BG63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM63" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BN63" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+      <c r="A64" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>44880.645752315</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="P64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>Mathematik</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>Sachunterricht</t>
+        </is>
+      </c>
+      <c r="T64" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="U64" s="2" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+      <c r="V64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="2" t="inlineStr">
+        <is>
+          <t>Begabtenförderung Mathematik</t>
+        </is>
+      </c>
+      <c r="AE64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL64" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN64" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR64" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA64" s="1" t="n">
+        <v>1524</v>
+      </c>
+      <c r="BB64" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="BC64" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="BD64" s="1" t="n">
+        <v>1767</v>
+      </c>
+      <c r="BE64" s="3"/>
+      <c r="BF64" s="3" t="n">
+        <v>44880.666203704</v>
+      </c>
+      <c r="BG64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM64" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BN64" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/02_paper/02_study/02_fitbit paper/data/data_empschul_labor_lehrperson.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/data_empschul_labor_lehrperson.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/02_paper/02_study/02_fitbit paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_CAB2F5451BDC24510042E4A75C4B802E9C5741FB" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A2777F61-2E8C-42C3-A8E4-269D1169724A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9CA8061A-F45C-4409-9FA2-D91638E57F31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="151">
   <si>
     <t>CASE</t>
   </si>
@@ -462,6 +462,18 @@
   <si>
     <t>Astronomie</t>
   </si>
+  <si>
+    <t>Technik</t>
+  </si>
+  <si>
+    <t>Mentorentätigkeit; SPS Sport</t>
+  </si>
+  <si>
+    <t>Biologie Grundkurs</t>
+  </si>
+  <si>
+    <t>Fachkonferenzleiterin</t>
+  </si>
 </sst>
 </file>
 
@@ -819,11 +831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN73"/>
+  <dimension ref="A1:BN80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="BM2" s="4">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="BN2" s="1">
         <v>0</v>
@@ -1582,7 +1594,7 @@
         <v>227</v>
       </c>
       <c r="BD4" s="1">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3">
@@ -1770,7 +1782,7 @@
         <v>439</v>
       </c>
       <c r="BD5" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3">
@@ -1975,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="BM6" s="4">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="BN6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -2163,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="BM7" s="4">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="BN7" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -2351,10 +2363,10 @@
         <v>1</v>
       </c>
       <c r="BM8" s="4">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BN8" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -2535,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="BM9" s="4">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="BN9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -2717,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="BM10" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="BN10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -2908,7 +2920,7 @@
         <v>0.8</v>
       </c>
       <c r="BN11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -3093,10 +3105,10 @@
         <v>1</v>
       </c>
       <c r="BM12" s="4">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="BN12" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -3258,7 +3270,7 @@
         <v>252</v>
       </c>
       <c r="BD13" s="1">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="BE13" s="3"/>
       <c r="BF13" s="3">
@@ -3283,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="4">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="BN13" s="1">
         <v>5</v>
@@ -3471,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="BM14" s="4">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BN14" s="1">
         <v>13</v>
@@ -3655,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="BM15" s="4">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="BN15" s="1">
         <v>6</v>
@@ -3843,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="BM16" s="4">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="BN16" s="1">
         <v>1</v>
@@ -4002,7 +4014,7 @@
         <v>273</v>
       </c>
       <c r="BD17" s="1">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="BE17" s="3"/>
       <c r="BF17" s="3">
@@ -4027,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="BM17" s="4">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="BN17" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -4217,10 +4229,10 @@
         <v>0</v>
       </c>
       <c r="BM18" s="4">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="BN18" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -4401,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="BM19" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="BN19" s="1">
         <v>7</v>
@@ -4589,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="BM20" s="4">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="BN20" s="1">
         <v>13</v>
@@ -4780,7 +4792,7 @@
         <v>0.8</v>
       </c>
       <c r="BN21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -4934,7 +4946,7 @@
         <v>187</v>
       </c>
       <c r="BD22" s="1">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="BE22" s="3"/>
       <c r="BF22" s="3">
@@ -4959,10 +4971,10 @@
         <v>1</v>
       </c>
       <c r="BM22" s="4">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="BN22" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -5122,7 +5134,7 @@
         <v>120</v>
       </c>
       <c r="BD23" s="1">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="BE23" s="3"/>
       <c r="BF23" s="3">
@@ -5147,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="BM23" s="4">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="BN23" s="1">
         <v>8</v>
@@ -5335,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="BM24" s="4">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="BN24" s="1">
         <v>1</v>
@@ -5525,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="4">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="BN25" s="1">
         <v>0</v>
@@ -5713,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="BM26" s="4">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BN26" s="1">
         <v>10</v>
@@ -6062,7 +6074,7 @@
         <v>162</v>
       </c>
       <c r="BD28" s="1">
-        <v>370</v>
+        <v>3608</v>
       </c>
       <c r="BE28" s="3"/>
       <c r="BF28" s="3">
@@ -6087,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="BM28" s="4">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="BN28" s="1">
         <v>2</v>
@@ -6250,7 +6262,7 @@
         <v>205</v>
       </c>
       <c r="BD29" s="1">
-        <v>525</v>
+        <v>357</v>
       </c>
       <c r="BE29" s="3"/>
       <c r="BF29" s="3">
@@ -6275,10 +6287,10 @@
         <v>1</v>
       </c>
       <c r="BM29" s="4">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="BN29" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -6457,10 +6469,10 @@
         <v>1</v>
       </c>
       <c r="BM30" s="4">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="BN30" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -6616,7 +6628,7 @@
         <v>138</v>
       </c>
       <c r="BD31" s="1">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BE31" s="3"/>
       <c r="BF31" s="3">
@@ -6641,10 +6653,10 @@
         <v>0</v>
       </c>
       <c r="BM31" s="4">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BN31" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -6831,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="BM32" s="4">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="BN32" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -7011,10 +7023,10 @@
         <v>1</v>
       </c>
       <c r="BM33" s="4">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="BN33" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -7170,7 +7182,7 @@
         <v>574</v>
       </c>
       <c r="BD34" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="BE34" s="3"/>
       <c r="BF34" s="3">
@@ -7195,10 +7207,10 @@
         <v>0</v>
       </c>
       <c r="BM34" s="4">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="BN34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -7375,10 +7387,10 @@
         <v>1</v>
       </c>
       <c r="BM35" s="4">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="BN35" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -7559,10 +7571,10 @@
         <v>10</v>
       </c>
       <c r="BM36" s="4">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="BN36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -7720,7 +7732,7 @@
         <v>177</v>
       </c>
       <c r="BD37" s="1">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="BE37" s="3"/>
       <c r="BF37" s="3">
@@ -7745,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="BM37" s="4">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="BN37" s="1">
         <v>0</v>
@@ -7902,7 +7914,7 @@
         <v>278</v>
       </c>
       <c r="BD38" s="1">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="BE38" s="3"/>
       <c r="BF38" s="3">
@@ -8086,7 +8098,7 @@
         <v>209</v>
       </c>
       <c r="BD39" s="1">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="BE39" s="3"/>
       <c r="BF39" s="3">
@@ -8114,7 +8126,7 @@
         <v>0.7</v>
       </c>
       <c r="BN39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -8300,7 +8312,7 @@
         <v>1.29</v>
       </c>
       <c r="BN40" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -8482,7 +8494,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="BN41" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -8670,7 +8682,7 @@
         <v>1.45</v>
       </c>
       <c r="BN42" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -8845,10 +8857,10 @@
         <v>3</v>
       </c>
       <c r="BM43" s="4">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="BN43" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -9027,10 +9039,10 @@
         <v>10</v>
       </c>
       <c r="BM44" s="4">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="BN44" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -9209,7 +9221,7 @@
         <v>10</v>
       </c>
       <c r="BM45" s="4">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="BN45" s="1">
         <v>21</v>
@@ -9400,7 +9412,7 @@
         <v>0.8</v>
       </c>
       <c r="BN46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -9583,10 +9595,10 @@
         <v>3</v>
       </c>
       <c r="BM47" s="4">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="BN47" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -9774,7 +9786,7 @@
         <v>1.05</v>
       </c>
       <c r="BN48" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -9961,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="4">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="BN49" s="1">
         <v>0</v>
@@ -10124,7 +10136,7 @@
         <v>146</v>
       </c>
       <c r="BD50" s="1">
-        <v>1765</v>
+        <v>1760</v>
       </c>
       <c r="BE50" s="3"/>
       <c r="BF50" s="3">
@@ -10310,7 +10322,7 @@
         <v>343</v>
       </c>
       <c r="BD51" s="1">
-        <v>712</v>
+        <v>529</v>
       </c>
       <c r="BE51" s="3"/>
       <c r="BF51" s="3">
@@ -10523,7 +10535,7 @@
         <v>1</v>
       </c>
       <c r="BM52" s="4">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="BN52" s="1">
         <v>8</v>
@@ -11083,10 +11095,10 @@
         <v>1</v>
       </c>
       <c r="BM55" s="4">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="BN55" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -11426,7 +11438,7 @@
         <v>137</v>
       </c>
       <c r="BD57" s="1">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="BE57" s="3"/>
       <c r="BF57" s="3">
@@ -11451,10 +11463,10 @@
         <v>1</v>
       </c>
       <c r="BM57" s="4">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="BN57" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -11612,7 +11624,7 @@
         <v>160</v>
       </c>
       <c r="BD58" s="1">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="BE58" s="3"/>
       <c r="BF58" s="3">
@@ -11637,7 +11649,7 @@
         <v>3</v>
       </c>
       <c r="BM58" s="4">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="BN58" s="1">
         <v>2</v>
@@ -11821,10 +11833,10 @@
         <v>0</v>
       </c>
       <c r="BM59" s="4">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="BN59" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -12001,10 +12013,10 @@
         <v>1</v>
       </c>
       <c r="BM60" s="4">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="BN60" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -12190,7 +12202,7 @@
         <v>1.29</v>
       </c>
       <c r="BN61" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -12367,10 +12379,10 @@
         <v>1</v>
       </c>
       <c r="BM62" s="4">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="BN62" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -12524,7 +12536,7 @@
         <v>416</v>
       </c>
       <c r="BD63" s="1">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="BE63" s="3"/>
       <c r="BF63" s="3">
@@ -12549,10 +12561,10 @@
         <v>0</v>
       </c>
       <c r="BM63" s="4">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="BN63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -12733,7 +12745,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="4">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="BN64" s="1">
         <v>5</v>
@@ -12915,10 +12927,10 @@
         <v>1</v>
       </c>
       <c r="BM65" s="4">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="BN65" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -13291,10 +13303,10 @@
         <v>1</v>
       </c>
       <c r="BM67" s="4">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="BN67" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -13659,10 +13671,10 @@
         <v>0</v>
       </c>
       <c r="BM69" s="4">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="BN69" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -13847,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="BM70" s="4">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="BN70" s="1">
         <v>0</v>
@@ -14029,10 +14041,10 @@
         <v>0</v>
       </c>
       <c r="BM71" s="4">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="BN71" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
@@ -14395,10 +14407,1276 @@
         <v>3</v>
       </c>
       <c r="BM73" s="4">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BN73" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>229</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="3">
+        <v>44980.491030092999</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3</v>
+      </c>
+      <c r="I74" s="1">
+        <v>3</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>2</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
+        <v>27</v>
+      </c>
+      <c r="P74" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S74" s="2"/>
+      <c r="T74" s="1">
+        <v>231</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V74" s="1">
+        <v>8</v>
+      </c>
+      <c r="W74" s="1">
+        <v>2</v>
+      </c>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK74" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL74" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN74" s="1">
+        <v>40</v>
+      </c>
+      <c r="AO74" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP74" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU74" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX74" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY74" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ74" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA74" s="1">
+        <v>30</v>
+      </c>
+      <c r="BB74" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC74" s="1">
+        <v>143</v>
+      </c>
+      <c r="BD74" s="1">
+        <v>225</v>
+      </c>
+      <c r="BE74" s="3"/>
+      <c r="BF74" s="3">
+        <v>44980.493634259001</v>
+      </c>
+      <c r="BG74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH74" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI74" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ74" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK74" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM74" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="BN74" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>230</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="3">
+        <v>44991.377442129997</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1">
+        <v>4</v>
+      </c>
+      <c r="I75" s="1">
+        <v>4</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1">
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
+        <v>33</v>
+      </c>
+      <c r="P75" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S75" s="2"/>
+      <c r="T75" s="1">
+        <v>232</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V75" s="1">
+        <v>12</v>
+      </c>
+      <c r="W75" s="1">
+        <v>2</v>
+      </c>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI75" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ75" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK75" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN75" s="1">
+        <v>49</v>
+      </c>
+      <c r="AO75" s="1">
+        <v>250</v>
+      </c>
+      <c r="AP75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR75" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV75" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW75" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX75" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY75" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ75" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA75" s="1">
+        <v>3123</v>
+      </c>
+      <c r="BB75" s="1">
+        <v>56</v>
+      </c>
+      <c r="BC75" s="1">
+        <v>184</v>
+      </c>
+      <c r="BD75" s="1">
+        <v>3363</v>
+      </c>
+      <c r="BE75" s="3"/>
+      <c r="BF75" s="3">
+        <v>44991.416365741003</v>
+      </c>
+      <c r="BG75" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH75" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI75" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ75" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK75" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL75" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM75" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="BN75" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>231</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="3">
+        <v>44993.382372685002</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3</v>
+      </c>
+      <c r="I76" s="1">
+        <v>3</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>2</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>46</v>
+      </c>
+      <c r="P76" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T76" s="1">
+        <v>233</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V76" s="1">
+        <v>7</v>
+      </c>
+      <c r="W76" s="1">
+        <v>2</v>
+      </c>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI76" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ76" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK76" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL76" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM76" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN76" s="1">
+        <v>95</v>
+      </c>
+      <c r="AO76" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP76" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ76" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR76" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS76" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT76" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU76" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV76" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW76" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX76" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY76" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ76" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA76" s="1">
+        <v>1750</v>
+      </c>
+      <c r="BB76" s="1">
+        <v>84</v>
+      </c>
+      <c r="BC76" s="1">
+        <v>209</v>
+      </c>
+      <c r="BD76" s="1">
+        <v>2043</v>
+      </c>
+      <c r="BE76" s="3"/>
+      <c r="BF76" s="3">
+        <v>44993.406018519003</v>
+      </c>
+      <c r="BG76" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI76" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ76" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM76" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="BN76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>232</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" s="3">
+        <v>44993.656238426003</v>
+      </c>
+      <c r="G77" s="1">
+        <v>3</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3</v>
+      </c>
+      <c r="I77" s="1">
+        <v>3</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>2</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
+        <v>39</v>
+      </c>
+      <c r="P77" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S77" s="2"/>
+      <c r="T77" s="1">
+        <v>234</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V77" s="1">
+        <v>12</v>
+      </c>
+      <c r="W77" s="1">
+        <v>2</v>
+      </c>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN77" s="1">
+        <v>70</v>
+      </c>
+      <c r="AO77" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ77" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV77" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW77" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX77" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY77" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ77" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA77" s="1">
+        <v>53</v>
+      </c>
+      <c r="BB77" s="1">
+        <v>49</v>
+      </c>
+      <c r="BC77" s="1">
+        <v>249</v>
+      </c>
+      <c r="BD77" s="1">
+        <v>351</v>
+      </c>
+      <c r="BE77" s="3"/>
+      <c r="BF77" s="3">
+        <v>44993.660300926</v>
+      </c>
+      <c r="BG77" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH77" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI77" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ77" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK77" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL77" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM77" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="BN77" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>233</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="3">
+        <v>45007.611840277998</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1">
+        <v>3</v>
+      </c>
+      <c r="I78" s="1">
+        <v>3</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>2</v>
+      </c>
+      <c r="L78" s="1">
+        <v>1</v>
+      </c>
+      <c r="M78" s="1">
+        <v>1</v>
+      </c>
+      <c r="N78" s="1">
+        <v>1</v>
+      </c>
+      <c r="O78" s="1">
+        <v>39</v>
+      </c>
+      <c r="P78" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S78" s="2"/>
+      <c r="T78" s="1">
+        <v>235</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V78" s="1">
+        <v>11</v>
+      </c>
+      <c r="W78" s="1">
+        <v>2</v>
+      </c>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="1">
+        <v>-9</v>
+      </c>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="1">
+        <v>-9</v>
+      </c>
+      <c r="AF78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ78" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN78" s="1">
+        <v>80</v>
+      </c>
+      <c r="AO78" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR78" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT78" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU78" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV78" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW78" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX78" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY78" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ78" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA78" s="1">
+        <v>3764</v>
+      </c>
+      <c r="BB78" s="1">
+        <v>61</v>
+      </c>
+      <c r="BC78" s="1">
+        <v>93</v>
+      </c>
+      <c r="BD78" s="1">
+        <v>248</v>
+      </c>
+      <c r="BE78" s="3"/>
+      <c r="BF78" s="3">
+        <v>45007.657199073998</v>
+      </c>
+      <c r="BG78" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI78" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ78" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK78" s="1">
+        <v>8</v>
+      </c>
+      <c r="BL78" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM78" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="BN78" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>234</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="3">
+        <v>45028.442187499997</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>4</v>
+      </c>
+      <c r="I79" s="1">
+        <v>4</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1">
+        <v>1</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
+      <c r="O79" s="1">
+        <v>60</v>
+      </c>
+      <c r="P79" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S79" s="2"/>
+      <c r="T79" s="1">
+        <v>236</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V79" s="1">
+        <v>12</v>
+      </c>
+      <c r="W79" s="1">
+        <v>2</v>
+      </c>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK79" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN79" s="1">
+        <v>80</v>
+      </c>
+      <c r="AO79" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU79" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV79" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY79" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ79" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA79" s="1">
+        <v>131</v>
+      </c>
+      <c r="BB79" s="1">
+        <v>60</v>
+      </c>
+      <c r="BC79" s="1">
+        <v>259</v>
+      </c>
+      <c r="BD79" s="1">
+        <v>450</v>
+      </c>
+      <c r="BE79" s="3"/>
+      <c r="BF79" s="3">
+        <v>45028.447407407002</v>
+      </c>
+      <c r="BG79" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH79" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI79" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ79" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK79" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL79" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM79" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="BN79" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:66" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>235</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="3">
+        <v>45029.361192130003</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4</v>
+      </c>
+      <c r="I80" s="1">
+        <v>4</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1">
+        <v>2</v>
+      </c>
+      <c r="L80" s="1">
+        <v>1</v>
+      </c>
+      <c r="M80" s="1">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1">
+        <v>34</v>
+      </c>
+      <c r="P80" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S80" s="2"/>
+      <c r="T80" s="1">
+        <v>237</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V80" s="1">
+        <v>6</v>
+      </c>
+      <c r="W80" s="1">
+        <v>2</v>
+      </c>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG80" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI80" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK80" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM80" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN80" s="1">
+        <v>80</v>
+      </c>
+      <c r="AO80" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP80" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR80" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU80" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV80" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ80" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA80" s="1">
+        <v>42</v>
+      </c>
+      <c r="BB80" s="1">
+        <v>58</v>
+      </c>
+      <c r="BC80" s="1">
+        <v>180</v>
+      </c>
+      <c r="BD80" s="1">
+        <v>280</v>
+      </c>
+      <c r="BE80" s="3"/>
+      <c r="BF80" s="3">
+        <v>45029.364432870003</v>
+      </c>
+      <c r="BG80" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH80" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI80" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ80" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK80" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL80" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM80" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="BN80" s="1">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
